--- a/Challenge/src/フローチャート（java）_1.xlsx
+++ b/Challenge/src/フローチャート（java）_1.xlsx
@@ -106,25 +106,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PersonオブジェクトをListで持つ</t>
-    <rPh sb="18" eb="19">
-      <t>モ</t>
+    <t>Personオブジェクトの保持</t>
+    <rPh sb="13" eb="15">
+      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>生年月日から年齢を計算する</t>
-    <rPh sb="0" eb="2">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケイサン</t>
+    <t>CSVからPersonオブジェクトに変換する</t>
+    <rPh sb="18" eb="20">
+      <t>ヘンカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1934,26 +1925,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248399" y="2543174"/>
-          <a:ext cx="1114425" cy="542925"/>
+          <a:off x="8391525" y="2295525"/>
+          <a:ext cx="1114425" cy="590549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1980,11 +1971,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>csv</a:t>
+            <a:t>Person</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイルの読み込み</a:t>
+            <a:t>オブジェクトを保持</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1993,26 +1984,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401050" y="3295650"/>
-          <a:ext cx="1114425" cy="542925"/>
+          <a:off x="10334625" y="2209799"/>
+          <a:ext cx="1114425" cy="838201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2039,70 +2030,19 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>Person</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>オブジェクトに変換</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10239375" y="4438649"/>
-          <a:ext cx="1114425" cy="790576"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Person</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>オブジェクトをリストに入れる</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2216,16 +2156,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2234,7 +2174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134100" y="6638925"/>
+          <a:off x="6257925" y="5457825"/>
           <a:ext cx="1114425" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2276,15 +2216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2293,7 +2233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="9315450"/>
+          <a:off x="6315075" y="8134350"/>
           <a:ext cx="1114425" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2334,16 +2274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2352,7 +2292,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="10858500"/>
+          <a:off x="6267450" y="9677400"/>
           <a:ext cx="1190625" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2390,15 +2330,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2407,7 +2347,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191251" y="8553450"/>
+          <a:off x="6315076" y="7372350"/>
           <a:ext cx="1123950" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
@@ -2449,16 +2389,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2467,7 +2407,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6153150" y="10172698"/>
+          <a:off x="6276975" y="8991598"/>
           <a:ext cx="1219200" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
@@ -2502,15 +2442,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38102</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>600077</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2519,7 +2459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210302" y="10239375"/>
+          <a:off x="6334127" y="9058275"/>
           <a:ext cx="1123950" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2565,16 +2505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2586,7 +2526,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6748463" y="9096375"/>
+          <a:off x="6872288" y="7915275"/>
           <a:ext cx="4763" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2615,16 +2555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2636,7 +2576,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6748463" y="9991725"/>
+          <a:off x="6872288" y="8810625"/>
           <a:ext cx="14287" cy="180973"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2665,16 +2605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>80964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2686,7 +2626,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="6153149" y="8824914"/>
+          <a:off x="6276974" y="7643814"/>
           <a:ext cx="38101" cy="1581147"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2717,16 +2657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2738,7 +2678,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6738938" y="10639423"/>
+          <a:off x="6862763" y="9458323"/>
           <a:ext cx="23812" cy="219077"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2811,16 +2751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2829,7 +2769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="7562850"/>
+          <a:off x="6267450" y="6381750"/>
           <a:ext cx="1114425" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2862,61 +2802,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>リストを苗字で降順ソートする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10258425" y="5524500"/>
-          <a:ext cx="1114425" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>生年月日から年齢に変換する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3031,130 +2916,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
+      <xdr:colOff>642937</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
+          <a:endCxn id="45" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6805612" y="1905000"/>
-          <a:ext cx="9525" cy="638174"/>
+        <a:xfrm>
+          <a:off x="6815137" y="1905000"/>
+          <a:ext cx="4763" cy="695324"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7362824" y="2814637"/>
-          <a:ext cx="1595439" cy="481013"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9577388" y="3219449"/>
-          <a:ext cx="600074" cy="1838325"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -3224,79 +3009,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>519113</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="カギ線コネクタ 52"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="2"/>
-          <a:endCxn id="20" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8534401" y="4357688"/>
-          <a:ext cx="438150" cy="4124325"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
+      <xdr:colOff>642938</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="32" idx="0"/>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="64" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10796588" y="5229225"/>
-          <a:ext cx="19050" cy="295275"/>
+        <a:xfrm flipH="1">
+          <a:off x="10910888" y="4981575"/>
+          <a:ext cx="19050" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3325,15 +3060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>519113</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3345,7 +3080,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6691313" y="7315200"/>
+          <a:off x="6815138" y="6134100"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3375,15 +3110,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3395,8 +3130,830 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6700838" y="8239125"/>
+          <a:off x="6824663" y="7058025"/>
           <a:ext cx="52388" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="1362075"/>
+          <a:ext cx="1190625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>START</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="3590925"/>
+          <a:ext cx="1190625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>END</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8939213" y="1676400"/>
+          <a:ext cx="9525" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8948738" y="2886074"/>
+          <a:ext cx="9525" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="60" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6796088" y="3133725"/>
+          <a:ext cx="23812" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="角丸四角形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315575" y="1333500"/>
+          <a:ext cx="1190625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>START</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート: 定義済み処理 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="2600324"/>
+          <a:ext cx="1066800" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSVtoPerson</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="4486275"/>
+          <a:ext cx="1114425" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>生年月日から年齢に変換する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10891838" y="1647825"/>
+          <a:ext cx="19050" cy="561974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="角丸四角形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315575" y="5514975"/>
+          <a:ext cx="1190625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>END</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6796088" y="5162550"/>
+          <a:ext cx="19050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="フローチャート: 定義済み処理 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="3371850"/>
+          <a:ext cx="1066800" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Person</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10372725" y="4238625"/>
+          <a:ext cx="1114425" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Person</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>オブジェクトを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に返す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10891838" y="3048000"/>
+          <a:ext cx="23812" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="2"/>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10915650" y="3790950"/>
+          <a:ext cx="14288" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3735,8 +4292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3774,16 +4331,16 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="P7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">

--- a/Challenge/src/フローチャート（java）_1.xlsx
+++ b/Challenge/src/フローチャート（java）_1.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Q６" sheetId="1" r:id="rId2"/>
     <sheet name="QT03" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'QT03'!$H$1:$R$59</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2206,7 +2209,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リストを年齢で降順ソートする</a:t>
+            <a:t>リストを苗字と年齢でソートする</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2751,65 +2754,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6267450" y="6381750"/>
-          <a:ext cx="1114425" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Person</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リストを苗字で降順ソートする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -3065,73 +3009,23 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6815138" y="6134100"/>
-          <a:ext cx="9525" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="2"/>
           <a:endCxn id="23" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6824663" y="7058025"/>
-          <a:ext cx="52388" cy="314325"/>
+          <a:off x="6815138" y="6134100"/>
+          <a:ext cx="61913" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4290,10 +4184,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4380,7 +4277,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Challenge/src/フローチャート（java）_1.xlsx
+++ b/Challenge/src/フローチャート（java）_1.xlsx
@@ -2219,65 +2219,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6315075" y="8134350"/>
-          <a:ext cx="1114425" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Person</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リストを表示する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -2333,15 +2274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2350,7 +2291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315076" y="7372350"/>
+          <a:off x="6267451" y="6562725"/>
           <a:ext cx="1123950" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
@@ -2508,29 +2449,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="1"/>
-          <a:endCxn id="21" idx="0"/>
+          <a:endCxn id="53" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6872288" y="7915275"/>
-          <a:ext cx="4763" cy="219075"/>
+          <a:off x="6829425" y="7105650"/>
+          <a:ext cx="1" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2559,13 +2500,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>42863</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
@@ -2573,14 +2514,14 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="2"/>
+          <a:stCxn id="65" idx="2"/>
           <a:endCxn id="24" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6872288" y="8810625"/>
-          <a:ext cx="14287" cy="180973"/>
+        <a:xfrm flipH="1">
+          <a:off x="6886575" y="8724900"/>
+          <a:ext cx="14288" cy="266698"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2609,15 +2550,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>100014</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:rowOff>138110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2628,13 +2569,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="6276974" y="7643814"/>
-          <a:ext cx="38101" cy="1581147"/>
+        <a:xfrm rot="10800000">
+          <a:off x="6267451" y="6834188"/>
+          <a:ext cx="9524" cy="2390772"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -599984"/>
+            <a:gd name="adj1" fmla="val 2500252"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3009,10 +2950,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3025,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6815138" y="6134100"/>
-          <a:ext cx="61913" cy="1238250"/>
+          <a:ext cx="14288" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3848,6 +3789,176 @@
         <a:xfrm>
           <a:off x="10915650" y="3790950"/>
           <a:ext cx="14288" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="フローチャート: 定義済み処理 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="7400925"/>
+          <a:ext cx="1066800" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Person</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="8220075"/>
+          <a:ext cx="1114425" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Person</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="7820025"/>
+          <a:ext cx="71438" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4189,8 +4300,8 @@
   </sheetPr>
   <dimension ref="A2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Challenge/src/フローチャート（java）_1.xlsx
+++ b/Challenge/src/フローチャート（java）_1.xlsx
@@ -2160,15 +2160,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>29695</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>458320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2177,8 +2177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6257925" y="5457825"/>
-          <a:ext cx="1114425" cy="676275"/>
+          <a:off x="6181724" y="3728757"/>
+          <a:ext cx="1112184" cy="662828"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2219,15 +2219,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>39220</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>132229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>544045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>103655</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2236,8 +2236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="9677400"/>
-          <a:ext cx="1190625" cy="314325"/>
+          <a:off x="6191249" y="7864288"/>
+          <a:ext cx="1188384" cy="307602"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2274,15 +2274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>39221</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>477371</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2291,8 +2291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267451" y="6562725"/>
-          <a:ext cx="1123950" cy="542925"/>
+          <a:off x="6191250" y="4810125"/>
+          <a:ext cx="1121709" cy="532840"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -2334,15 +2334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:colOff>48745</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
+      <xdr:colOff>582145</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2351,8 +2351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6276975" y="8991598"/>
-          <a:ext cx="1219200" cy="466725"/>
+          <a:off x="6200774" y="7191933"/>
+          <a:ext cx="1216959" cy="456640"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -2386,15 +2386,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161927</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>105897</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>600077</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>544047</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>65554</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2403,8 +2403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6334127" y="9058275"/>
-          <a:ext cx="1123950" cy="381000"/>
+          <a:off x="6257926" y="7258610"/>
+          <a:ext cx="1121709" cy="370915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2450,15 +2450,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>601195</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>601196</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84604</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2470,8 +2470,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6829425" y="7105650"/>
-          <a:ext cx="1" cy="295275"/>
+          <a:off x="6753224" y="5342965"/>
+          <a:ext cx="1" cy="288551"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2499,16 +2499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132227</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2520,8 +2520,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6886575" y="8724900"/>
-          <a:ext cx="14288" cy="266698"/>
+          <a:off x="6809253" y="6931959"/>
+          <a:ext cx="14288" cy="259974"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2550,15 +2550,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:colOff>39221</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>138110</xdr:rowOff>
+      <xdr:colOff>48745</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>26051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2570,8 +2570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6267451" y="6834188"/>
-          <a:ext cx="9524" cy="2390772"/>
+          <a:off x="6191250" y="5078226"/>
+          <a:ext cx="9524" cy="2343707"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2601,16 +2601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>632292</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656104</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>132229</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2622,8 +2622,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6862763" y="9458323"/>
-          <a:ext cx="23812" cy="219077"/>
+          <a:off x="6784321" y="7648573"/>
+          <a:ext cx="23812" cy="215715"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2945,15 +2945,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>586908</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>601196</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2965,8 +2965,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6815138" y="6134100"/>
-          <a:ext cx="14288" cy="428625"/>
+          <a:off x="6738937" y="4391585"/>
+          <a:ext cx="14288" cy="418540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3050,15 +3050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3067,7 +3067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="3590925"/>
+          <a:off x="8353425" y="4991100"/>
           <a:ext cx="1190625" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3156,27 +3156,27 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
+          <a:stCxn id="68" idx="2"/>
           <a:endCxn id="41" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8948738" y="2886074"/>
-          <a:ext cx="9525" cy="704851"/>
+        <a:xfrm flipH="1">
+          <a:off x="8948738" y="4162425"/>
+          <a:ext cx="19050" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3205,28 +3205,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
+      <xdr:colOff>585787</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>646580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="45" idx="2"/>
-          <a:endCxn id="60" idx="0"/>
+          <a:endCxn id="20" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6796088" y="3133725"/>
-          <a:ext cx="23812" cy="1352550"/>
+          <a:off x="6737816" y="3073213"/>
+          <a:ext cx="60793" cy="655544"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3363,61 +3363,6 @@
             <a:t>CSVtoPerson</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6238875" y="4486275"/>
-          <a:ext cx="1114425" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>生年月日から年齢に変換する</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3530,56 +3475,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="2"/>
-          <a:endCxn id="20" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6796088" y="5162550"/>
-          <a:ext cx="19050" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -3817,15 +3712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>67795</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>448795</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160805</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3834,8 +3729,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6296025" y="7400925"/>
-          <a:ext cx="1066800" cy="419100"/>
+          <a:off x="6219824" y="5631516"/>
+          <a:ext cx="1064559" cy="412377"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3878,15 +3773,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>115420</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>544045</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3895,8 +3790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6343650" y="8220075"/>
-          <a:ext cx="1114425" cy="504825"/>
+          <a:off x="6267449" y="6437219"/>
+          <a:ext cx="1112184" cy="494740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3937,15 +3832,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>601195</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>670392</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49866</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3957,8 +3852,113 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="7820025"/>
-          <a:ext cx="71438" cy="400050"/>
+          <a:off x="6753224" y="6043893"/>
+          <a:ext cx="69197" cy="393326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="3419475"/>
+          <a:ext cx="1114425" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>生年月日から年齢に変換する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8948738" y="2886074"/>
+          <a:ext cx="19050" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4300,8 +4300,8 @@
   </sheetPr>
   <dimension ref="A2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
